--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Levy.Fall.112219.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Levy.Fall.112219.xlsx_with_dialog_acts.xlsx
@@ -723,12 +723,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1563,12 +1563,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1941,12 +1941,12 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2067,12 +2067,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2155,12 +2155,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3205,12 +3205,12 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3251,12 +3251,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3713,12 +3713,12 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3839,12 +3839,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4385,12 +4385,12 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4595,12 +4595,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5183,12 +5183,12 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5309,12 +5309,12 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5351,12 +5351,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5939,12 +5939,12 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6065,12 +6065,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6401,12 +6401,12 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6485,12 +6485,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6653,12 +6653,12 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6737,12 +6737,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6779,12 +6779,12 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6989,12 +6989,12 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7745,12 +7745,12 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7955,12 +7955,12 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
